--- a/2_specs/domain/csp_employer.xlsx
+++ b/2_specs/domain/csp_employer.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\d.workshop\pony\2_specs\domain\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360CloudUI\Cache\1333240703\studio\km.pony\2_specs\domain\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="111">
   <si>
     <t>Label</t>
   </si>
@@ -244,15 +244,173 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
+    <t>公司类型</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>lov</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>规模</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件地址</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>nText</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
+    <t>Slug</t>
+  </si>
+  <si>
+    <t>Introduce</t>
+  </si>
+  <si>
+    <t>CompanyType</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>CompanySize</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>LicenseId</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>PostalCode</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>CoverId</t>
+  </si>
+  <si>
+    <t>LogoId</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Follows</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>CreatedBy</t>
+  </si>
+  <si>
+    <t>CreatedOn</t>
+  </si>
+  <si>
+    <t>LastModified</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>营业执照ID</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGO</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页封面</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司标签</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
     <t>公司简称</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>公司类型</t>
+    <t>一句话介绍</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>lov</t>
+    <t>阶段</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业、机构总部地址</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细地址</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注者</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司分类</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
@@ -277,161 +435,15 @@
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>规模</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业、机构总部地址</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件地址</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>nText</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>Slug</t>
-  </si>
-  <si>
-    <t>Introduce</t>
-  </si>
-  <si>
-    <t>CompanyType</t>
-  </si>
-  <si>
-    <t>Industry</t>
-  </si>
-  <si>
-    <t>CompanySize</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t>LicenseId</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>EmailAddress</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>PostalCode</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>CoverId</t>
-  </si>
-  <si>
-    <t>LogoId</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Follows</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>CreatedBy</t>
-  </si>
-  <si>
-    <t>CreatedOn</t>
-  </si>
-  <si>
-    <t>LastModified</t>
-  </si>
-  <si>
-    <t>Deleted</t>
-  </si>
-  <si>
-    <t>一句话介绍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业执照ID</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGO</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页封面</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司标签</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司分类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮编</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注者</t>
+    <t>ParentId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Theme</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -742,52 +754,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,7 +769,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,9 +881,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -927,34 +890,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1264,13 +1206,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1348,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>56</v>
@@ -1367,17 +1309,17 @@
       <c r="K4" s="16"/>
       <c r="L4" s="18"/>
       <c r="M4" s="18"/>
-      <c r="N4" s="38"/>
+      <c r="N4" s="37"/>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="14">
-        <f t="shared" ref="A5:A31" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A32" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="34" t="s">
@@ -1398,7 +1340,7 @@
       <c r="M5" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="39"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="14">
@@ -1406,10 +1348,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="41" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>5</v>
@@ -1429,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="18"/>
-      <c r="N6" s="38"/>
+      <c r="N6" s="37"/>
     </row>
     <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14">
@@ -1437,10 +1379,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="41" t="s">
-        <v>95</v>
+        <v>68</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>99</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>5</v>
@@ -1458,7 +1400,7 @@
       <c r="K7" s="16"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="38"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="14">
@@ -1466,13 +1408,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="34" t="s">
         <v>59</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>60</v>
       </c>
       <c r="E8" s="36"/>
       <c r="F8" s="36"/>
@@ -1485,7 +1427,7 @@
       <c r="K8" s="34"/>
       <c r="L8" s="18"/>
       <c r="M8" s="18"/>
-      <c r="N8" s="38"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="14">
@@ -1493,13 +1435,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
@@ -1512,7 +1454,7 @@
       <c r="K9" s="34"/>
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="38"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="14">
@@ -1520,13 +1462,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>62</v>
+        <v>71</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
@@ -1539,7 +1481,7 @@
       <c r="K10" s="16"/>
       <c r="L10" s="18"/>
       <c r="M10" s="18"/>
-      <c r="N10" s="39"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="14">
@@ -1547,13 +1489,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="41" t="s">
-        <v>97</v>
+        <v>72</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
@@ -1566,7 +1508,7 @@
       <c r="K11" s="34"/>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="38"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="14">
@@ -1574,10 +1516,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="41" t="s">
-        <v>96</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>91</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>3</v>
@@ -1593,7 +1535,7 @@
       <c r="K12" s="34"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="38"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14">
@@ -1601,13 +1543,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>63</v>
+        <v>74</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>61</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="36">
         <v>100</v>
@@ -1622,7 +1564,7 @@
       <c r="K13" s="16"/>
       <c r="L13" s="18"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="40"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14">
@@ -1630,10 +1572,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="41" t="s">
-        <v>64</v>
+        <v>75</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>101</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>23</v>
@@ -1649,7 +1591,7 @@
       <c r="K14" s="34"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
-      <c r="N14" s="38"/>
+      <c r="N14" s="37"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14">
@@ -1657,13 +1599,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C15" s="41" t="s">
-        <v>106</v>
+        <v>76</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>97</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E15" s="36">
         <v>20</v>
@@ -1680,7 +1622,7 @@
       <c r="M15" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="N15" s="38"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="14">
@@ -1688,13 +1630,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" s="41" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E16" s="36">
         <v>100</v>
@@ -1719,13 +1661,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>67</v>
+        <v>78</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>102</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E17" s="36">
         <v>50</v>
@@ -1748,13 +1690,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="41" t="s">
-        <v>104</v>
+        <v>79</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>103</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="36"/>
@@ -1775,10 +1717,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C19" s="41" t="s">
-        <v>105</v>
+        <v>80</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>104</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>3</v>
@@ -1804,10 +1746,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="41" t="s">
-        <v>101</v>
+        <v>81</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>95</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>25</v>
@@ -1831,10 +1773,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" s="41" t="s">
-        <v>100</v>
+        <v>82</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>94</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>3</v>
@@ -1858,10 +1800,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>99</v>
+        <v>83</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>93</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>3</v>
@@ -1885,10 +1827,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>98</v>
+        <v>84</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>92</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>27</v>
@@ -1912,10 +1854,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="37" t="s">
-        <v>107</v>
+        <v>85</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>105</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>8</v>
@@ -1939,10 +1881,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>106</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>5</v>
@@ -1954,7 +1896,7 @@
       <c r="G25" s="36"/>
       <c r="H25" s="36"/>
       <c r="I25" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="J25" s="34"/>
       <c r="K25" s="16"/>
@@ -1969,20 +1911,26 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="36"/>
+      <c r="B26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="36">
+        <v>100</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36" t="b">
+        <v>1</v>
+      </c>
       <c r="I26" s="7"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="18"/>
       <c r="M26" s="18"/>
       <c r="N26" s="26"/>
@@ -1992,20 +1940,22 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="36"/>
+      <c r="B27" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="40"/>
+      <c r="D27" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36" t="b">
+        <v>1</v>
+      </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="18"/>
       <c r="M27" s="18"/>
       <c r="N27" s="26"/>
@@ -2015,12 +1965,12 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>93</v>
+      <c r="B28" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="16" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2031,19 +1981,19 @@
       <c r="K28" s="16"/>
       <c r="L28" s="18"/>
       <c r="M28" s="18"/>
-      <c r="N28" s="20"/>
+      <c r="N28" s="26"/>
     </row>
     <row r="29" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>94</v>
+      <c r="B29" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="16" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -2054,56 +2004,83 @@
       <c r="K29" s="16"/>
       <c r="L29" s="18"/>
       <c r="M29" s="18"/>
-      <c r="N29" s="20"/>
+      <c r="N29" s="26"/>
     </row>
     <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="49"/>
+      <c r="B30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="20"/>
     </row>
     <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="21">
+      <c r="A31" s="14">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="29"/>
+      <c r="B31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="20"/>
+    </row>
+    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="21">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="28"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5 K4:M31 H4:H31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J5 H4:H32 K4:M32">
       <formula1>"TRUE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6:J32">
       <formula1>"√"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D32">
       <formula1>DataType</formula1>
     </dataValidation>
   </dataValidations>
